--- a/data/input/theory_plane_behaviour.xlsx
+++ b/data/input/theory_plane_behaviour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\melodie2\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/CE_RE_AGE/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAF0BE-68A2-4AFE-A078-EE6D8181B225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82247E06-B2CB-0748-A5CF-10BAFCD8B7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,13 +87,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -186,7 +186,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,17 +467,17 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="24.9140625" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
